--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1262,7 +1262,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1287,7 +1287,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,7 +1362,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1412,16 +1412,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1437,11 +1437,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1462,7 +1462,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1562,7 +1562,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1626,18 +1626,18 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1662,21 +1662,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1712,11 +1712,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1737,11 +1737,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1762,11 +1762,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1787,11 +1787,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1837,7 +1837,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1887,7 +1887,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1912,7 +1912,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1937,7 +1937,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2112,7 +2112,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2137,7 +2137,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2162,16 +2162,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2181,22 +2181,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2206,13 +2206,13 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2262,7 +2262,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2337,7 +2337,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2437,11 +2437,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2462,11 +2462,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2512,7 +2512,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2537,7 +2537,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2562,11 +2562,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2587,11 +2587,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2612,11 +2612,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2637,11 +2637,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2662,7 +2662,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2712,7 +2712,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2737,7 +2737,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2837,7 +2837,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2887,7 +2887,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2912,11 +2912,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2937,11 +2937,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3012,7 +3012,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3037,7 +3037,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3112,7 +3112,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3137,7 +3137,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3162,16 +3162,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3181,22 +3181,22 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3312,7 +3312,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3337,16 +3337,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3356,22 +3356,22 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3381,13 +3381,13 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3412,11 +3412,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3456,17 +3456,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3487,11 +3487,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3512,16 +3512,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3531,22 +3531,22 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3556,13 +3556,13 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3587,7 +3587,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3612,16 +3612,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3631,13 +3631,13 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3812,7 +3812,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3862,7 +3862,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3937,7 +3937,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3987,7 +3987,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4037,7 +4037,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4062,7 +4062,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4087,7 +4087,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4137,7 +4137,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4162,7 +4162,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4187,7 +4187,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4237,7 +4237,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4312,7 +4312,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4337,7 +4337,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4462,11 +4462,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4487,7 +4487,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4512,7 +4512,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4537,11 +4537,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4562,7 +4562,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4637,32 +4637,32 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4687,11 +4687,11 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4712,32 +4712,32 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4762,11 +4762,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4787,7 +4787,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4812,7 +4812,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4837,7 +4837,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4862,7 +4862,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4912,7 +4912,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4937,7 +4937,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5037,21 +5037,21 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5062,16 +5062,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5081,47 +5081,47 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5137,16 +5137,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5156,22 +5156,22 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5181,13 +5181,13 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5212,24 +5212,99 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
+        <v>247</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>249</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>251</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
         <v>252</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,7 +787,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -887,7 +887,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,7 +962,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,7 +1012,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,7 +1112,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1187,7 +1187,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1212,7 +1212,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1237,7 +1237,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1262,7 +1262,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1287,7 +1287,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1337,7 +1337,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1412,7 +1412,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,16 +1437,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1462,11 +1462,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1487,7 +1487,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1587,7 +1587,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1612,16 +1612,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1631,13 +1631,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1662,7 +1662,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1701,18 +1701,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1737,11 +1737,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1762,16 +1762,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1781,27 +1781,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1837,11 +1837,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1912,7 +1912,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1937,7 +1937,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1987,7 +1987,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2137,7 +2137,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2187,32 +2187,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2312,7 +2312,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2356,13 +2356,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2512,7 +2512,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2537,7 +2537,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2587,11 +2587,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2612,11 +2612,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2637,11 +2637,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2662,7 +2662,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2712,7 +2712,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2737,7 +2737,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2762,11 +2762,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2787,7 +2787,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2837,11 +2837,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2912,7 +2912,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2937,11 +2937,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3037,7 +3037,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3062,7 +3062,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3112,7 +3112,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3137,11 +3137,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3162,7 +3162,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3187,16 +3187,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3206,27 +3206,27 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3262,7 +3262,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3312,7 +3312,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3356,13 +3356,13 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3387,36 +3387,36 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3437,16 +3437,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3456,13 +3456,13 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3487,11 +3487,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3512,16 +3512,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3531,22 +3531,22 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3556,13 +3556,13 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3587,7 +3587,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3612,32 +3612,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3662,16 +3662,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3681,13 +3681,13 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3712,11 +3712,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3737,16 +3737,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3756,17 +3756,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3787,7 +3787,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3837,16 +3837,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3856,13 +3856,13 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3937,7 +3937,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4012,16 +4012,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4031,13 +4031,13 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4046,12 +4046,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4062,7 +4062,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4112,7 +4112,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4162,7 +4162,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4212,7 +4212,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4312,7 +4312,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4362,7 +4362,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4437,7 +4437,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4462,7 +4462,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4487,7 +4487,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4537,11 +4537,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4562,7 +4562,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4587,7 +4587,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4637,7 +4637,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4662,7 +4662,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4687,7 +4687,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4712,16 +4712,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4731,13 +4731,13 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4762,11 +4762,11 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4787,7 +4787,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4812,16 +4812,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4837,7 +4837,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4862,7 +4862,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4912,7 +4912,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4937,7 +4937,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4962,7 +4962,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -4987,7 +4987,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5037,16 +5037,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5056,13 +5056,13 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5087,11 +5087,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5112,21 +5112,21 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5137,16 +5137,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5156,22 +5156,22 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5181,13 +5181,13 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5262,7 +5262,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5287,24 +5287,424 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
+        <v>233</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>235</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>236</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>237</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>238</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>239</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>240</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>241</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>243</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>244</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>246</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>247</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>248</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>249</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>250</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>251</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
         <v>252</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,11 +2537,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2562,7 +2562,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2587,7 +2587,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2612,36 +2612,36 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2662,16 +2662,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2712,7 +2712,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2762,11 +2762,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2787,11 +2787,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2887,7 +2887,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2937,11 +2937,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3012,11 +3012,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3037,7 +3037,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3137,11 +3137,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3162,7 +3162,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3212,7 +3212,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3221,12 +3221,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3262,7 +3262,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3287,7 +3287,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3312,11 +3312,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3337,7 +3337,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3362,7 +3362,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3406,27 +3406,27 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3462,7 +3462,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3512,7 +3512,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3556,13 +3556,13 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3587,16 +3587,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3606,17 +3606,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3662,16 +3662,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3681,13 +3681,13 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3712,11 +3712,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3762,11 +3762,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3787,7 +3787,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3812,7 +3812,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3837,16 +3837,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3856,13 +3856,13 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,16 +3887,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3906,13 +3906,13 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3937,11 +3937,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3962,16 +3962,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3981,17 +3981,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4012,32 +4012,32 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4062,16 +4062,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4081,13 +4081,13 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4187,7 +4187,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4237,16 +4237,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4256,13 +4256,13 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4312,7 +4312,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4362,7 +4362,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4437,7 +4437,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4462,7 +4462,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4537,7 +4537,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4562,7 +4562,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4587,7 +4587,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4637,7 +4637,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4662,7 +4662,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4787,7 +4787,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4812,11 +4812,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4837,7 +4837,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4862,7 +4862,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4912,7 +4912,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4962,7 +4962,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5056,13 +5056,13 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5087,11 +5087,11 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5112,7 +5112,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5162,7 +5162,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5187,7 +5187,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5212,7 +5212,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5262,16 +5262,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5281,13 +5281,13 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5312,11 +5312,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5337,7 +5337,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5387,7 +5387,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5437,21 +5437,21 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5462,7 +5462,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -5487,16 +5487,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5506,22 +5506,22 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5531,13 +5531,13 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5562,7 +5562,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5662,21 +5662,21 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -5687,24 +5687,249 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
+        <v>241</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>243</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>244</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>246</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>247</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>248</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>249</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>250</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>251</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
         <v>252</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1212,7 +1212,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1237,7 +1237,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1287,11 +1287,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1337,11 +1337,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1362,16 +1362,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1381,13 +1381,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1412,7 +1412,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,7 +1437,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1462,11 +1462,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1487,7 +1487,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1512,7 +1512,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1537,7 +1537,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1562,7 +1562,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1637,11 +1637,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1662,7 +1662,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,32 +1687,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1737,7 +1737,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1762,46 +1762,46 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1837,11 +1837,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1862,16 +1862,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1881,27 +1881,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1912,7 +1912,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1937,16 +1937,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1956,27 +1956,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1987,7 +1987,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2012,11 +2012,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2087,7 +2087,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2137,7 +2137,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2162,7 +2162,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2212,7 +2212,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2262,7 +2262,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2337,32 +2337,32 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2512,16 +2512,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2531,17 +2531,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2562,7 +2562,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2587,7 +2587,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2631,17 +2631,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2662,16 +2662,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>1B</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2712,11 +2712,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2737,7 +2737,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2762,7 +2762,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2787,36 +2787,36 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2837,16 +2837,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2887,7 +2887,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2937,11 +2937,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2962,11 +2962,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2987,7 +2987,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3012,16 +3012,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3037,7 +3037,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3062,7 +3062,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3112,11 +3112,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3137,7 +3137,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3187,11 +3187,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3212,7 +3212,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3287,7 +3287,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3312,11 +3312,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3337,7 +3337,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3362,7 +3362,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3462,7 +3462,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3512,7 +3512,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3537,11 +3537,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3562,7 +3562,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3587,16 +3587,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3606,17 +3606,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3662,7 +3662,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3687,7 +3687,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3712,7 +3712,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3756,13 +3756,13 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3812,36 +3812,36 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3862,7 +3862,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,16 +3887,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3906,13 +3906,13 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3937,11 +3937,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3962,7 +3962,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3987,11 +3987,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4012,7 +4012,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4037,7 +4037,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4062,16 +4062,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4081,13 +4081,13 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4112,16 +4112,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4131,13 +4131,13 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4162,11 +4162,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4187,16 +4187,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4206,17 +4206,17 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4237,32 +4237,32 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4287,16 +4287,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4306,13 +4306,13 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4412,7 +4412,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4462,16 +4462,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4481,13 +4481,13 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4512,7 +4512,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4537,7 +4537,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4587,7 +4587,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4662,7 +4662,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4687,7 +4687,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4762,7 +4762,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4787,7 +4787,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4812,7 +4812,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4862,7 +4862,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4887,7 +4887,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5012,7 +5012,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5037,11 +5037,11 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5062,7 +5062,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5087,7 +5087,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5137,7 +5137,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5187,7 +5187,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5281,13 +5281,13 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5312,11 +5312,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5337,7 +5337,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5387,7 +5387,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5412,7 +5412,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5437,7 +5437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5462,7 +5462,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5487,16 +5487,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5506,13 +5506,13 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5537,11 +5537,11 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5562,7 +5562,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5612,7 +5612,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5662,21 +5662,21 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -5687,7 +5687,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -5712,16 +5712,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5731,22 +5731,22 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5756,13 +5756,13 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -5787,7 +5787,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -5887,21 +5887,21 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -5912,24 +5912,249 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
+        <v>241</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>243</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>244</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>246</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>247</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>248</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>249</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>250</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>251</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
         <v>252</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Código IE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nivel Plan</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Nivel Lider</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Nivel Directivos</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dimensión 5</t>
         </is>
@@ -462,13 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>1A</t>
@@ -476,10 +479,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -487,13 +495,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>1A</t>
@@ -501,10 +507,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -512,24 +523,27 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -537,13 +551,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>1A</t>
@@ -555,6 +567,11 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -562,24 +579,27 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -587,13 +607,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>1A</t>
@@ -601,10 +619,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -612,13 +635,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>1A</t>
@@ -626,10 +647,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -637,13 +663,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>1A</t>
@@ -651,10 +675,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -662,13 +691,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>1A</t>
@@ -676,10 +703,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -687,13 +719,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>1A</t>
@@ -705,6 +735,11 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -712,24 +747,27 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -737,13 +775,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>1A</t>
@@ -751,10 +787,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -762,16 +803,14 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -780,6 +819,11 @@
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -787,12 +831,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -801,10 +843,15 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -812,12 +859,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -826,10 +871,15 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -837,12 +887,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -851,10 +899,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -862,12 +915,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -876,10 +927,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -887,12 +943,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -905,6 +959,11 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -912,12 +971,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -930,6 +987,11 @@
         </is>
       </c>
       <c r="E20" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -937,12 +999,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -955,6 +1015,11 @@
         </is>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -962,12 +1027,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -976,10 +1039,15 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -987,12 +1055,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1001,10 +1067,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1012,12 +1083,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1030,6 +1099,11 @@
         </is>
       </c>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1037,12 +1111,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1051,10 +1123,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1062,12 +1139,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1076,10 +1151,15 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1087,12 +1167,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1101,10 +1179,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1112,12 +1195,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1130,6 +1211,11 @@
         </is>
       </c>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1137,12 +1223,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1151,10 +1235,15 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1162,12 +1251,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1176,10 +1263,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1187,16 +1279,14 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1205,6 +1295,11 @@
         </is>
       </c>
       <c r="E31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1212,12 +1307,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>35</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1226,10 +1319,15 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1237,12 +1335,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1251,10 +1347,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1262,12 +1363,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1280,6 +1379,11 @@
         </is>
       </c>
       <c r="E34" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1287,12 +1391,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>39</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1301,10 +1403,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1312,12 +1419,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>40</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1326,10 +1431,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1337,12 +1447,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>41</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1351,10 +1459,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1362,37 +1475,38 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>42</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1401,10 +1515,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1412,24 +1531,27 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1437,24 +1559,27 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1462,24 +1587,27 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1487,12 +1615,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1501,23 +1627,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1526,10 +1655,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1537,12 +1671,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>49</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1551,10 +1683,15 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1562,12 +1699,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>50</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1576,10 +1711,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1587,16 +1727,14 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>51</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1605,6 +1743,11 @@
         </is>
       </c>
       <c r="E47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1612,24 +1755,27 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>52</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1637,12 +1783,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>53</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1651,10 +1795,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1662,12 +1811,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>54</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1680,6 +1827,11 @@
         </is>
       </c>
       <c r="E50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1687,12 +1839,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>55</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1705,6 +1855,11 @@
         </is>
       </c>
       <c r="E51" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1712,12 +1867,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1726,10 +1879,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1737,12 +1895,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>57</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1751,10 +1907,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1762,16 +1923,14 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>58</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1780,6 +1939,11 @@
         </is>
       </c>
       <c r="E54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1787,12 +1951,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1801,10 +1963,15 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1812,12 +1979,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>60</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1826,10 +1991,15 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1837,12 +2007,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>61</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1851,10 +2019,15 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1862,41 +2035,42 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>62</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>63</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1905,6 +2079,11 @@
         </is>
       </c>
       <c r="E59" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1912,12 +2091,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>64</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1926,10 +2103,15 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1937,41 +2119,42 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>65</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>66</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1980,6 +2163,11 @@
         </is>
       </c>
       <c r="E62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -1987,49 +2175,55 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68</v>
-      </c>
-      <c r="B64" t="inlineStr">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2037,12 +2231,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>69</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2051,10 +2243,15 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2062,49 +2259,55 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>70</v>
-      </c>
-      <c r="B66" t="inlineStr">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>71</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2112,12 +2315,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>72</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2126,10 +2327,15 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2137,24 +2343,27 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2162,12 +2371,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>74</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2180,6 +2387,11 @@
         </is>
       </c>
       <c r="E70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2187,24 +2399,27 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>75</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2212,12 +2427,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>76</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2226,10 +2439,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2237,12 +2455,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>77</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2255,6 +2471,11 @@
         </is>
       </c>
       <c r="E73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2262,12 +2483,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>79</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2280,6 +2499,11 @@
         </is>
       </c>
       <c r="E74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2287,12 +2511,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>80</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2305,6 +2527,11 @@
         </is>
       </c>
       <c r="E75" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2312,12 +2539,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>82</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2330,6 +2555,11 @@
         </is>
       </c>
       <c r="E76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2337,12 +2567,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>83</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2355,6 +2583,11 @@
         </is>
       </c>
       <c r="E77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2362,12 +2595,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>85</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2380,6 +2611,11 @@
         </is>
       </c>
       <c r="E78" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2387,12 +2623,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>86</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2401,10 +2635,15 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2412,12 +2651,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>87</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2426,10 +2663,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2437,12 +2679,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>88</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2451,10 +2691,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2462,12 +2707,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>89</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2480,6 +2723,11 @@
         </is>
       </c>
       <c r="E82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2487,12 +2735,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>90</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2501,10 +2747,15 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2512,37 +2763,38 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>91</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>92</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2551,10 +2803,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2562,12 +2819,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>93</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2576,10 +2831,15 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2587,12 +2847,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>94</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2601,10 +2859,15 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2612,12 +2875,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>95</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2626,10 +2887,15 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2637,12 +2903,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>96</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2651,10 +2915,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2662,24 +2931,27 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>97</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2687,24 +2959,27 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>98</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2712,16 +2987,14 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>99</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2731,18 +3004,21 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>100</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2755,6 +3031,11 @@
         </is>
       </c>
       <c r="E93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2762,12 +3043,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>101</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2776,10 +3055,15 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2787,37 +3071,38 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>103</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2826,10 +3111,15 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2837,12 +3127,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>104</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2851,10 +3139,15 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2862,12 +3155,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>105</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2876,10 +3167,15 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2887,12 +3183,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>106</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2901,10 +3195,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2912,24 +3211,27 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>107</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2937,12 +3239,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>108</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2951,10 +3251,15 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2962,12 +3267,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>109</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2980,6 +3283,11 @@
         </is>
       </c>
       <c r="E102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -2987,49 +3295,55 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>110</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3037,12 +3351,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3051,10 +3363,15 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3062,12 +3379,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>114</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3076,10 +3391,15 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3087,12 +3407,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>115</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3101,10 +3419,15 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3112,12 +3435,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>116</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3126,10 +3447,15 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3137,12 +3463,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>117</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3151,10 +3475,15 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3162,24 +3491,27 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>118</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3187,12 +3519,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>119</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3201,10 +3531,15 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3212,12 +3547,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>120</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3226,10 +3559,15 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3237,12 +3575,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>121</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3251,10 +3587,15 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3262,12 +3603,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>122</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3276,10 +3615,15 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3287,12 +3631,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>123</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3305,6 +3647,11 @@
         </is>
       </c>
       <c r="E115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3312,12 +3659,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>124</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3330,6 +3675,11 @@
         </is>
       </c>
       <c r="E116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3337,24 +3687,27 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>126</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3362,12 +3715,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>127</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3376,10 +3727,15 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3387,12 +3743,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>128</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3401,10 +3755,15 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3412,16 +3771,14 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>129</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3430,6 +3787,11 @@
         </is>
       </c>
       <c r="E120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3437,12 +3799,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>130</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3451,10 +3811,15 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3462,12 +3827,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>131</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3476,10 +3839,15 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3487,12 +3855,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>132</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3505,6 +3871,11 @@
         </is>
       </c>
       <c r="E123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3512,12 +3883,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>133</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3526,10 +3895,15 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3537,12 +3911,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>135</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3551,10 +3923,15 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3562,24 +3939,27 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>136</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3587,12 +3967,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>137</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3601,10 +3979,15 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3612,12 +3995,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>138</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3626,10 +4007,15 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3637,16 +4023,14 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>140</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3655,6 +4039,11 @@
         </is>
       </c>
       <c r="E129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3662,12 +4051,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>141</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>129</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3680,6 +4067,11 @@
         </is>
       </c>
       <c r="E130" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3687,12 +4079,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>142</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>130</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3701,10 +4091,15 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3712,12 +4107,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>144</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>131</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3726,10 +4119,15 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3737,12 +4135,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>145</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>132</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3751,10 +4147,15 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3762,12 +4163,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>146</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3776,10 +4175,15 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3787,12 +4191,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>147</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3801,10 +4203,15 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3812,37 +4219,38 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>148</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>149</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3851,10 +4259,15 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3862,12 +4275,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>150</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3876,10 +4287,15 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3887,12 +4303,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>151</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>138</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3901,10 +4315,15 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3912,16 +4331,14 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>152</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>139</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3930,6 +4347,11 @@
         </is>
       </c>
       <c r="E140" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3937,12 +4359,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>153</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>140</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3951,10 +4371,15 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -3962,37 +4387,38 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>154</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>155</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4001,10 +4427,15 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4012,12 +4443,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>156</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>144</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4026,10 +4455,15 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4037,12 +4471,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>158</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>145</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4055,6 +4487,11 @@
         </is>
       </c>
       <c r="E145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4062,12 +4499,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>159</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>146</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4076,10 +4511,15 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4087,12 +4527,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>160</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>147</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4101,10 +4539,15 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4112,49 +4555,55 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>161</v>
-      </c>
-      <c r="B148" t="inlineStr">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>148</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>162</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>149</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4162,12 +4611,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>163</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>150</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4176,10 +4623,15 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4187,37 +4639,38 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>164</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>151</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>165</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>152</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4226,10 +4679,15 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4237,12 +4695,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>166</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>153</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4255,6 +4711,11 @@
         </is>
       </c>
       <c r="E153" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4262,16 +4723,14 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>167</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>154</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4281,43 +4740,49 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>168</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>155</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>169</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>156</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4326,10 +4791,15 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4337,12 +4807,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>170</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>157</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4351,10 +4819,15 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4362,12 +4835,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>171</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>158</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4376,10 +4847,15 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4387,12 +4863,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>172</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>159</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4401,10 +4875,15 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4412,12 +4891,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>173</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>160</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4426,10 +4903,15 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4437,66 +4919,70 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>174</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>161</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>175</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>162</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>176</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>163</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4505,6 +4991,11 @@
         </is>
       </c>
       <c r="E163" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4512,49 +5003,55 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>177</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>164</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>178</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>165</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4562,12 +5059,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>179</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>166</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4576,10 +5071,15 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4587,12 +5087,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>180</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>167</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4601,10 +5099,15 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4612,37 +5115,38 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>181</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>168</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>182</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>169</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4651,10 +5155,15 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4662,12 +5171,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>183</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>170</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4676,10 +5183,15 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4687,12 +5199,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>184</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>171</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4701,10 +5211,15 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4712,12 +5227,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>185</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>172</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4726,10 +5239,15 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4737,24 +5255,27 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>186</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>173</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4762,12 +5283,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>187</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>174</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4776,10 +5295,15 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4787,37 +5311,38 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>188</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>175</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>189</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>176</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4826,10 +5351,15 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4837,12 +5367,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>190</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>177</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4855,6 +5383,11 @@
         </is>
       </c>
       <c r="E177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4862,12 +5395,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>196</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>178</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4880,6 +5411,11 @@
         </is>
       </c>
       <c r="E178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4887,12 +5423,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>197</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>179</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4905,6 +5439,11 @@
         </is>
       </c>
       <c r="E179" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4912,12 +5451,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>198</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>180</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4926,10 +5463,15 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4937,12 +5479,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>199</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>181</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4951,10 +5491,15 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4962,12 +5507,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>200</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>182</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4980,6 +5523,11 @@
         </is>
       </c>
       <c r="E182" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -4987,12 +5535,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>201</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>183</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5005,6 +5551,11 @@
         </is>
       </c>
       <c r="E183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5012,12 +5563,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>202</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>184</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5026,10 +5575,15 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5037,12 +5591,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>203</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>185</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5051,10 +5603,15 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5062,12 +5619,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>204</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>186</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5080,6 +5635,11 @@
         </is>
       </c>
       <c r="E186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5087,12 +5647,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>205</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>187</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5101,10 +5659,15 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5112,12 +5675,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>206</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>188</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5130,6 +5691,11 @@
         </is>
       </c>
       <c r="E188" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5137,12 +5703,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>208</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>189</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5151,10 +5715,15 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5162,12 +5731,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>209</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>190</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5176,10 +5743,15 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5187,12 +5759,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>210</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>196</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5205,6 +5775,11 @@
         </is>
       </c>
       <c r="E191" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5212,12 +5787,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>211</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>197</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5226,10 +5799,15 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5237,12 +5815,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>212</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>198</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5251,10 +5827,15 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5262,12 +5843,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>213</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>199</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5276,10 +5855,15 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5287,12 +5871,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>214</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>200</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5305,6 +5887,11 @@
         </is>
       </c>
       <c r="E195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5312,12 +5899,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>215</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>201</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5326,10 +5911,15 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5337,12 +5927,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>216</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>202</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5351,10 +5939,15 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5362,12 +5955,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>217</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>203</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5376,10 +5967,15 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5387,12 +5983,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>218</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>204</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5405,6 +5999,11 @@
         </is>
       </c>
       <c r="E199" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5412,12 +6011,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>219</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>205</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5430,6 +6027,11 @@
         </is>
       </c>
       <c r="E200" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5437,12 +6039,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>220</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>206</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5451,10 +6051,15 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5462,12 +6067,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>221</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>207</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5476,10 +6079,15 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5487,37 +6095,38 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>222</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>208</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>223</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>209</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5530,6 +6139,11 @@
         </is>
       </c>
       <c r="E204" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5537,12 +6151,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>224</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>210</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5551,10 +6163,15 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5562,12 +6179,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>225</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>211</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5576,10 +6191,15 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5587,24 +6207,27 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>226</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>212</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5612,24 +6235,27 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>227</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>213</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5637,12 +6263,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>228</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>214</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5651,10 +6275,15 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5662,24 +6291,27 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>229</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>215</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5687,12 +6319,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>230</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>216</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5705,6 +6335,11 @@
         </is>
       </c>
       <c r="E211" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5712,12 +6347,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>231</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>217</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5726,10 +6359,15 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5737,12 +6375,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>233</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>218</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5751,10 +6387,15 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5762,12 +6403,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>235</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>219</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5776,10 +6415,15 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5787,12 +6431,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>236</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>220</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5801,10 +6443,15 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5812,12 +6459,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>237</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>221</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5826,10 +6471,15 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5837,37 +6487,38 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>238</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>222</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>239</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>223</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5880,6 +6531,11 @@
         </is>
       </c>
       <c r="E218" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5887,16 +6543,14 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>240</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>224</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5905,6 +6559,11 @@
         </is>
       </c>
       <c r="E219" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5912,12 +6571,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>241</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>225</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5930,6 +6587,11 @@
         </is>
       </c>
       <c r="E220" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -5937,16 +6599,14 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>243</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>226</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5956,43 +6616,49 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>244</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>227</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>246</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>228</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6005,6 +6671,11 @@
         </is>
       </c>
       <c r="E223" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6012,12 +6683,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>247</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>229</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6026,10 +6695,15 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6037,12 +6711,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>248</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>230</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6051,10 +6723,15 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6062,12 +6739,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>249</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>231</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6076,10 +6751,15 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6087,12 +6767,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>250</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>232</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6101,10 +6779,15 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6112,12 +6795,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>251</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>233</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -6126,10 +6807,15 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
@@ -6137,24 +6823,475 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>235</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>236</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>237</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>238</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>239</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>240</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>241</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>243</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>244</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>245</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>246</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>247</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>248</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>249</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>250</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>251</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
         <v>252</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
         <is>
           <t>1A</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="11">
   <si>
     <t>Código IE</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>2A</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2302,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -2840,7 +2843,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -2849,7 +2852,7 @@
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
@@ -2857,7 +2860,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2874,7 +2877,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -2891,7 +2894,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -2908,44 +2911,44 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -2985,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -3002,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
         <v>5</v>
@@ -3010,41 +3013,41 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D154" t="s">
         <v>8</v>
       </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -3061,7 +3064,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -3078,7 +3081,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -3087,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -3104,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
         <v>5</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -3129,44 +3132,44 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3180,50 +3183,50 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
         <v>8</v>
       </c>
       <c r="E165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -3231,7 +3234,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -3240,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -3248,41 +3251,41 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -3333,7 +3336,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -3350,41 +3353,41 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174" t="s">
         <v>8</v>
       </c>
       <c r="E174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -3393,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -3401,7 +3404,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3418,7 +3421,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3452,7 +3455,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3461,7 +3464,7 @@
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -3469,7 +3472,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -3478,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
@@ -3486,7 +3489,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -3503,7 +3506,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -3520,7 +3523,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -3537,13 +3540,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D185" t="s">
         <v>8</v>
@@ -3554,13 +3557,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3580,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
         <v>5</v>
@@ -3588,7 +3591,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -3597,7 +3600,7 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -3605,7 +3608,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -3614,7 +3617,7 @@
         <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
@@ -3622,10 +3625,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3639,16 +3642,16 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E191" t="s">
         <v>5</v>
@@ -3656,7 +3659,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3682,7 +3685,7 @@
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E193" t="s">
         <v>5</v>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3716,7 +3719,7 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -3733,7 +3736,7 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -3741,7 +3744,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3750,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E197" t="s">
         <v>5</v>
@@ -3758,7 +3761,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3767,7 +3770,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -3775,7 +3778,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -3784,7 +3787,7 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
@@ -3792,7 +3795,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3801,7 +3804,7 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3818,7 +3821,7 @@
         <v>5</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E201" t="s">
         <v>5</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3860,7 +3863,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3869,7 +3872,7 @@
         <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -3877,7 +3880,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3886,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E205" t="s">
         <v>5</v>
@@ -3894,7 +3897,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3903,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -3911,7 +3914,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3920,7 +3923,7 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E207" t="s">
         <v>5</v>
@@ -3928,7 +3931,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3937,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -3945,7 +3948,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -3962,7 +3965,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3971,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -3979,10 +3982,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3996,7 +3999,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -4005,7 +4008,7 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -4013,10 +4016,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4030,7 +4033,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -4039,7 +4042,7 @@
         <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -4047,7 +4050,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -4064,7 +4067,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -4073,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -4081,7 +4084,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -4090,7 +4093,7 @@
         <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E217" t="s">
         <v>5</v>
@@ -4098,7 +4101,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -4107,7 +4110,7 @@
         <v>5</v>
       </c>
       <c r="D218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -4115,24 +4118,24 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -4141,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -4149,24 +4152,24 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
       </c>
       <c r="E221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -4175,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -4183,13 +4186,13 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D223" t="s">
         <v>8</v>
@@ -4200,7 +4203,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -4217,13 +4220,13 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D225" t="s">
         <v>8</v>
@@ -4234,7 +4237,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -4243,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E226" t="s">
         <v>5</v>
@@ -4251,13 +4254,13 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
         <v>8</v>
@@ -4268,7 +4271,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -4277,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -4285,7 +4288,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -4302,7 +4305,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -4311,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -4345,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -4353,7 +4356,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -4370,7 +4373,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -4387,7 +4390,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -4396,7 +4399,7 @@
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E235" t="s">
         <v>5</v>
@@ -4404,16 +4407,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -4421,7 +4424,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -4438,44 +4441,44 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4489,41 +4492,41 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D242" t="s">
         <v>8</v>
       </c>
       <c r="E242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4549,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -4557,7 +4560,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4574,7 +4577,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4591,18 +4594,69 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
+        <v>249</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>250</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>251</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
         <v>252</v>
       </c>
-      <c r="B247" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" t="s">
-        <v>5</v>
-      </c>
-      <c r="D247" t="s">
-        <v>8</v>
-      </c>
-      <c r="E247" t="s">
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
         <v>5</v>
       </c>
     </row>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="11">
   <si>
     <t>Código IE</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2478,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
@@ -4152,50 +4152,50 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
       </c>
       <c r="E221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E223" t="s">
         <v>5</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4220,13 +4220,13 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D225" t="s">
         <v>8</v>
@@ -4237,13 +4237,13 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D226" t="s">
         <v>8</v>
@@ -4254,13 +4254,13 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D227" t="s">
         <v>8</v>
@@ -4271,16 +4271,16 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -4297,7 +4297,7 @@
         <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E229" t="s">
         <v>5</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -4365,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E233" t="s">
         <v>5</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -4433,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E237" t="s">
         <v>5</v>
@@ -4441,13 +4441,13 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D238" t="s">
         <v>5</v>
@@ -4458,13 +4458,13 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
@@ -4475,16 +4475,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -4492,24 +4492,24 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D241" t="s">
         <v>8</v>
       </c>
       <c r="E241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
@@ -4526,24 +4526,24 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D243" t="s">
         <v>8</v>
       </c>
       <c r="E243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -4552,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -4569,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E245" t="s">
         <v>5</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4586,7 +4586,7 @@
         <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4645,18 +4645,35 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
         <v>252</v>
       </c>
-      <c r="B250" t="s">
-        <v>5</v>
-      </c>
-      <c r="C250" t="s">
-        <v>5</v>
-      </c>
-      <c r="D250" t="s">
-        <v>8</v>
-      </c>
-      <c r="E250" t="s">
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" t="s">
         <v>5</v>
       </c>
     </row>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="11">
   <si>
     <t>Código IE</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -3370,41 +3370,41 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D175" t="s">
         <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -3481,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -3498,7 +3498,7 @@
         <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -3557,13 +3557,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
@@ -3574,13 +3574,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -3600,7 +3600,7 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -3617,7 +3617,7 @@
         <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -3634,7 +3634,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3702,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3719,7 +3719,7 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -3736,7 +3736,7 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3770,7 +3770,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -3804,7 +3804,7 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3838,7 +3838,7 @@
         <v>5</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3906,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3940,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -3974,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -3991,7 +3991,7 @@
         <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E211" t="s">
         <v>5</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4033,16 +4033,16 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -4059,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E215" t="s">
         <v>5</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -4110,7 +4110,7 @@
         <v>5</v>
       </c>
       <c r="D218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -4169,50 +4169,50 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D222" t="s">
         <v>8</v>
       </c>
       <c r="E222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4237,13 +4237,13 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D226" t="s">
         <v>8</v>
@@ -4254,13 +4254,13 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D227" t="s">
         <v>8</v>
@@ -4271,13 +4271,13 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D228" t="s">
         <v>8</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -4297,7 +4297,7 @@
         <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E229" t="s">
         <v>5</v>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D230" t="s">
         <v>8</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -4331,7 +4331,7 @@
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E231" t="s">
         <v>5</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -4365,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E233" t="s">
         <v>5</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -4399,7 +4399,7 @@
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E235" t="s">
         <v>5</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -4450,7 +4450,7 @@
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -4458,16 +4458,16 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E239" t="s">
         <v>5</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E241" t="s">
         <v>5</v>
@@ -4509,75 +4509,75 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D243" t="s">
         <v>8</v>
       </c>
       <c r="E243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D244" t="s">
         <v>8</v>
       </c>
       <c r="E244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -4586,7 +4586,7 @@
         <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -4603,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E247" t="s">
         <v>5</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -4620,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -4662,18 +4662,52 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
         <v>252</v>
       </c>
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" t="s">
-        <v>5</v>
-      </c>
-      <c r="D251" t="s">
-        <v>8</v>
-      </c>
-      <c r="E251" t="s">
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s">
         <v>5</v>
       </c>
     </row>
